--- a/Data/swaption elastic 0.1 hedge.xlsx
+++ b/Data/swaption elastic 0.1 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5424.596808619136</v>
+        <v>-27994.4883319465</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>2326.327574470732</v>
+        <v>-61841.30292646569</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>584.0166461575941</v>
+        <v>-969.8155483269711</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>-397.0576246327602</v>
+        <v>5285.647092486146</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>96</v>
       </c>
       <c r="B6">
-        <v>-1586.882723523582</v>
+        <v>6168.432095381811</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>-709.3216725426739</v>
+        <v>1151.546575812964</v>
       </c>
     </row>
   </sheetData>
